--- a/Goods.xlsx
+++ b/Goods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NikKor\Магазин\Анализ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndroidS\Desktop\R_Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -74,7 +74,34 @@
     <t>Milk_oop.</t>
   </si>
   <si>
-    <t>X</t>
+    <t>Перевод</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Торт </t>
+  </si>
+  <si>
+    <t>Молоко</t>
+  </si>
+  <si>
+    <t>Гречка</t>
+  </si>
+  <si>
+    <t>Хлеб</t>
+  </si>
+  <si>
+    <t>Бутылка воды</t>
+  </si>
+  <si>
+    <t>Товар X</t>
+  </si>
+  <si>
+    <t>Соль</t>
+  </si>
+  <si>
+    <t>Кефир</t>
+  </si>
+  <si>
+    <t>Somfing</t>
   </si>
 </sst>
 </file>
@@ -447,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +488,7 @@
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +507,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -501,8 +531,11 @@
         <f>E2/10</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -522,8 +555,11 @@
         <f t="shared" ref="F3:F8" si="0">E3/10</f>
         <v>2.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -543,8 +579,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -564,8 +603,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -585,8 +627,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -606,8 +651,11 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -627,10 +675,13 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -647,6 +698,9 @@
       <c r="F9">
         <f>E9/10</f>
         <v>0.2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
